--- a/public/FORMAT-PENGAJUAN.xlsx
+++ b/public/FORMAT-PENGAJUAN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbce0b9783bbb58e/Documents/Kerjaan/pengajuan bbm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pengajuan_bbm\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_9AC19B3B8879C67B2ACC023804D82C27C7360B7D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D77D76D0-F480-485C-8240-CD2712F92E5F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Kusuka" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
   <si>
     <t>Data Pelaku Usaha</t>
   </si>
@@ -127,16 +126,31 @@
     <t>Nama_Kelompok</t>
   </si>
   <si>
-    <t>KELOMPOK Akatsuki</t>
-  </si>
-  <si>
     <t>Kuota</t>
+  </si>
+  <si>
+    <t>Tidak Valid</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>KELOMPOK SATU</t>
+  </si>
+  <si>
+    <t>nama_kapal</t>
+  </si>
+  <si>
+    <t>express bahari 3</t>
+  </si>
+  <si>
+    <t>gross_tonase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,24 +207,30 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:N100" totalsRowShown="0">
-  <autoFilter ref="A4:N100" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NIK"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nama"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tipe"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Jenis_Kelamin"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tempat_Lahir"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tanggal_Lahir"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Provinsi"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="KabupatenKota"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Kecamatan"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Desa"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Alamat"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Status"/>
-    <tableColumn id="14" xr3:uid="{AF7F4EDB-57D3-4FD0-92CB-AA16BCB36822}" name="Kuota"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Nama_Kelompok"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:P100" totalsRowShown="0">
+  <autoFilter ref="A4:P100"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="NIK"/>
+    <tableColumn id="2" name="Nama"/>
+    <tableColumn id="3" name="Tipe"/>
+    <tableColumn id="4" name="Jenis_Kelamin"/>
+    <tableColumn id="5" name="Tempat_Lahir"/>
+    <tableColumn id="6" name="Tanggal_Lahir"/>
+    <tableColumn id="8" name="Provinsi"/>
+    <tableColumn id="9" name="KabupatenKota"/>
+    <tableColumn id="10" name="Kecamatan"/>
+    <tableColumn id="11" name="Desa"/>
+    <tableColumn id="12" name="Alamat"/>
+    <tableColumn id="13" name="Status"/>
+    <tableColumn id="14" name="Kuota"/>
+    <tableColumn id="15" name="Nama_Kelompok"/>
+    <tableColumn id="7" name="nama_kapal"/>
+    <tableColumn id="16" name="gross_tonase"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -500,12 +520,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A92" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,19 +541,22 @@
     <col min="11" max="11" width="45" customWidth="1"/>
     <col min="12" max="13" width="10.44140625" customWidth="1"/>
     <col min="14" max="14" width="20.21875" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="21.109375" customWidth="1"/>
+    <col min="17" max="18" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -571,13 +594,19 @@
         <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>123</v>
       </c>
@@ -612,16 +641,22 @@
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M5">
         <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>321</v>
       </c>
@@ -662,10 +697,16 @@
         <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12345</v>
       </c>
@@ -706,10 +747,16 @@
         <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>17237123</v>
       </c>
@@ -744,16 +791,22 @@
         <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M8">
         <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1514123</v>
       </c>
@@ -788,16 +841,22 @@
         <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M9">
         <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1231283748</v>
       </c>
@@ -838,10 +897,16 @@
         <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1231248</v>
       </c>
@@ -882,7 +947,13 @@
         <v>20</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
